--- a/Excel-XLSX/UN-IRN.xlsx
+++ b/Excel-XLSX/UN-IRN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>I48Y1h</t>
+    <t>c4Glt5</t>
   </si>
   <si>
     <t>1979</t>
@@ -600,10 +600,10 @@
     <t>2023</t>
   </si>
   <si>
-    <t>3431680</t>
-  </si>
-  <si>
-    <t>303</t>
+    <t>3752317</t>
+  </si>
+  <si>
+    <t>516</t>
   </si>
   <si>
     <t>46</t>
@@ -954,6 +954,9 @@
     <t>93</t>
   </si>
   <si>
+    <t>12175</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
@@ -1074,18 +1077,18 @@
     <t>124</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
     <t>125</t>
   </si>
   <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
     <t>126</t>
   </si>
   <si>
@@ -1134,72 +1137,72 @@
     <t>144</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>United Rep. of Tanzania</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
     <t>145</t>
   </si>
   <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>United Rep. of Tanzania</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>TZA</t>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJK</t>
+    <t>195</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>TUN</t>
   </si>
   <si>
     <t>148</t>
   </si>
   <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>TUN</t>
+    <t>196</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>Türkiye</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
     <t>151</t>
   </si>
   <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>UZB</t>
-  </si>
-  <si>
     <t>152</t>
   </si>
   <si>
@@ -1254,94 +1257,88 @@
     <t>170</t>
   </si>
   <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
     <t>171</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
     <t>172</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
     <t>174</t>
   </si>
   <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
     <t>175</t>
   </si>
   <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>176</t>
   </si>
   <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1500</t>
+    <t>1969</t>
   </si>
   <si>
     <t>177</t>
   </si>
   <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>178</t>
   </si>
   <si>
-    <t>1969</t>
-  </si>
-  <si>
     <t>179</t>
   </si>
   <si>
+    <t>47450</t>
+  </si>
+  <si>
     <t>180</t>
   </si>
   <si>
+    <t>36500</t>
+  </si>
+  <si>
+    <t>10933</t>
+  </si>
+  <si>
     <t>181</t>
-  </si>
-  <si>
-    <t>47450</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>36500</t>
-  </si>
-  <si>
-    <t>10933</t>
-  </si>
-  <si>
-    <t>183</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1723,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V184"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1866,8 +1863,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1934,8 +1931,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -2002,8 +1999,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -2070,8 +2067,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -2138,8 +2135,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -2206,8 +2203,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -2274,8 +2271,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -2342,8 +2339,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -2410,8 +2407,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2478,8 +2475,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -2546,8 +2543,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2614,8 +2611,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2682,8 +2679,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2750,8 +2747,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2818,8 +2815,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2886,8 +2883,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2954,8 +2951,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -3022,8 +3019,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3090,8 +3087,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3158,8 +3155,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -3226,8 +3223,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -3294,8 +3291,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -3362,8 +3359,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3430,8 +3427,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3498,8 +3495,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3566,8 +3563,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3634,8 +3631,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3702,8 +3699,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3770,8 +3767,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3838,8 +3835,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -3906,8 +3903,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -3974,8 +3971,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -4042,8 +4039,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -4110,8 +4107,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -4178,8 +4175,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -4246,8 +4243,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -4314,8 +4311,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -4382,8 +4379,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -4450,8 +4447,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -4518,8 +4515,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4586,8 +4583,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4654,8 +4651,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4722,8 +4719,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4926,8 +4923,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4994,8 +4991,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -5062,8 +5059,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -5130,8 +5127,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -5198,8 +5195,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -5266,8 +5263,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5334,8 +5331,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -5402,8 +5399,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -5470,8 +5467,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -5538,8 +5535,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5606,8 +5603,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5674,8 +5671,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5742,8 +5739,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5810,8 +5807,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5878,8 +5875,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5946,8 +5943,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -6014,8 +6011,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -6082,8 +6079,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -6150,8 +6147,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -6218,8 +6215,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -6286,8 +6283,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -6354,8 +6351,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -6422,8 +6419,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -6490,8 +6487,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6558,8 +6555,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6626,8 +6623,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6694,8 +6691,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6762,8 +6759,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6830,8 +6827,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6898,8 +6895,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6966,8 +6963,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -7034,8 +7031,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -7102,8 +7099,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -7170,8 +7167,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -7238,8 +7235,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -7306,8 +7303,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -7374,8 +7371,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -7442,8 +7439,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -7510,8 +7507,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7578,8 +7575,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7646,8 +7643,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7714,8 +7711,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7782,8 +7779,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7850,8 +7847,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7918,8 +7915,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7986,8 +7983,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -8099,13 +8096,13 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>32</v>
@@ -8137,22 +8134,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -8173,7 +8170,7 @@
         <v>32</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>32</v>
@@ -8190,8 +8187,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -8205,22 +8202,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -8258,8 +8255,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -8279,16 +8276,16 @@
         <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -8326,8 +8323,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -8347,16 +8344,16 @@
         <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -8394,8 +8391,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -8409,22 +8406,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -8462,8 +8459,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -8477,22 +8474,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -8530,8 +8527,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8545,22 +8542,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8598,8 +8595,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8613,22 +8610,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8666,8 +8663,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8681,22 +8678,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8734,8 +8731,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8749,22 +8746,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8802,8 +8799,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8817,22 +8814,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8870,8 +8867,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -8885,22 +8882,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8938,8 +8935,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -8953,22 +8950,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>156</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -9006,8 +9003,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -9027,16 +9024,16 @@
         <v>161</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -9074,8 +9071,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -9089,22 +9086,22 @@
         <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -9142,8 +9139,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -9157,22 +9154,22 @@
         <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>28</v>
@@ -9210,8 +9207,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -9225,22 +9222,22 @@
         <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>28</v>
@@ -9278,8 +9275,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -9293,22 +9290,22 @@
         <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>28</v>
@@ -9346,8 +9343,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -9361,22 +9358,22 @@
         <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>28</v>
@@ -9414,8 +9411,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -9429,22 +9426,22 @@
         <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>28</v>
@@ -9482,8 +9479,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -9497,22 +9494,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>28</v>
@@ -9550,8 +9547,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -9565,22 +9562,22 @@
         <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>28</v>
@@ -9633,22 +9630,22 @@
         <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>193</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>28</v>
@@ -9701,22 +9698,22 @@
         <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>28</v>
@@ -9754,8 +9751,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -9769,22 +9766,22 @@
         <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>28</v>
@@ -9822,8 +9819,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -9837,22 +9834,22 @@
         <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>28</v>
@@ -9890,8 +9887,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -9905,22 +9902,22 @@
         <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>28</v>
@@ -9958,8 +9955,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -9973,22 +9970,22 @@
         <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>28</v>
@@ -10026,8 +10023,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -10041,22 +10038,22 @@
         <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>28</v>
@@ -10094,8 +10091,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -10109,22 +10106,22 @@
         <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>189</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>28</v>
@@ -10177,22 +10174,22 @@
         <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>28</v>
@@ -10210,7 +10207,7 @@
         <v>32</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>32</v>
@@ -10245,10 +10242,10 @@
         <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>353</v>
@@ -10278,7 +10275,7 @@
         <v>32</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>32</v>
@@ -10298,8 +10295,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -10313,10 +10310,10 @@
         <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>353</v>
@@ -10346,7 +10343,7 @@
         <v>32</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>32</v>
@@ -10366,8 +10363,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -10381,10 +10378,10 @@
         <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>353</v>
@@ -10414,7 +10411,7 @@
         <v>32</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>32</v>
@@ -10434,8 +10431,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -10452,7 +10449,7 @@
         <v>301</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>353</v>
@@ -10479,10 +10476,10 @@
         <v>30</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>32</v>
@@ -10502,8 +10499,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -10517,10 +10514,10 @@
         <v>22</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>353</v>
@@ -10550,7 +10547,7 @@
         <v>63</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="P130" s="2" t="s">
         <v>32</v>
@@ -10570,8 +10567,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -10585,10 +10582,10 @@
         <v>22</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>353</v>
@@ -10618,7 +10615,7 @@
         <v>63</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>32</v>
@@ -10638,8 +10635,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -10653,10 +10650,10 @@
         <v>22</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>353</v>
@@ -10683,10 +10680,10 @@
         <v>30</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="P132" s="2" t="s">
         <v>32</v>
@@ -10706,8 +10703,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -10721,10 +10718,10 @@
         <v>22</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>353</v>
@@ -10751,10 +10748,10 @@
         <v>30</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>32</v>
@@ -10774,8 +10771,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -10789,10 +10786,10 @@
         <v>22</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>353</v>
@@ -10819,10 +10816,10 @@
         <v>30</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="P134" s="2" t="s">
         <v>32</v>
@@ -10842,8 +10839,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -10860,7 +10857,7 @@
         <v>271</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>353</v>
@@ -10910,8 +10907,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -10925,10 +10922,10 @@
         <v>22</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>353</v>
@@ -10978,8 +10975,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -10993,10 +10990,10 @@
         <v>22</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>353</v>
@@ -11026,7 +11023,7 @@
         <v>56</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>32</v>
@@ -11046,8 +11043,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -11061,10 +11058,10 @@
         <v>22</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>353</v>
@@ -11114,8 +11111,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -11129,10 +11126,10 @@
         <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>353</v>
@@ -11182,8 +11179,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -11197,10 +11194,10 @@
         <v>22</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>353</v>
@@ -11250,8 +11247,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -11265,10 +11262,10 @@
         <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>353</v>
@@ -11318,8 +11315,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -11333,10 +11330,10 @@
         <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>353</v>
@@ -11386,8 +11383,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -11401,10 +11398,10 @@
         <v>22</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>353</v>
@@ -11454,8 +11451,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -11469,10 +11466,10 @@
         <v>22</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>353</v>
@@ -11537,22 +11534,22 @@
         <v>22</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>28</v>
@@ -11567,7 +11564,7 @@
         <v>30</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>32</v>
@@ -11605,22 +11602,22 @@
         <v>22</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>28</v>
@@ -11635,10 +11632,10 @@
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="P146" s="2" t="s">
         <v>32</v>
@@ -11658,8 +11655,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -11673,10 +11670,10 @@
         <v>22</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>378</v>
@@ -11706,7 +11703,7 @@
         <v>32</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="P147" s="2" t="s">
         <v>32</v>
@@ -11726,8 +11723,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -11744,19 +11741,19 @@
         <v>353</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>28</v>
@@ -11774,7 +11771,7 @@
         <v>32</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P148" s="2" t="s">
         <v>32</v>
@@ -11794,8 +11791,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -11809,22 +11806,22 @@
         <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>28</v>
@@ -11839,10 +11836,10 @@
         <v>30</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P149" s="2" t="s">
         <v>32</v>
@@ -11862,8 +11859,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -11877,10 +11874,10 @@
         <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>386</v>
@@ -11907,13 +11904,13 @@
         <v>30</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>32</v>
@@ -11930,8 +11927,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -11945,22 +11942,22 @@
         <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>28</v>
@@ -11978,10 +11975,10 @@
         <v>32</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Q151" s="2" t="s">
         <v>32</v>
@@ -11998,8 +11995,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -12013,10 +12010,10 @@
         <v>22</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>391</v>
@@ -12043,10 +12040,10 @@
         <v>30</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="P152" s="2" t="s">
         <v>32</v>
@@ -12066,8 +12063,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -12081,10 +12078,10 @@
         <v>22</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>391</v>
@@ -12111,10 +12108,10 @@
         <v>30</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="P153" s="2" t="s">
         <v>32</v>
@@ -12134,8 +12131,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -12149,10 +12146,10 @@
         <v>22</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>391</v>
@@ -12179,10 +12176,10 @@
         <v>30</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="O154" s="2" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="P154" s="2" t="s">
         <v>32</v>
@@ -12202,8 +12199,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -12217,10 +12214,10 @@
         <v>22</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>391</v>
@@ -12247,10 +12244,10 @@
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>32</v>
@@ -12270,8 +12267,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -12285,10 +12282,10 @@
         <v>22</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>391</v>
@@ -12318,7 +12315,7 @@
         <v>176</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>32</v>
@@ -12338,8 +12335,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -12353,10 +12350,10 @@
         <v>22</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>391</v>
@@ -12383,10 +12380,10 @@
         <v>30</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>32</v>
@@ -12406,8 +12403,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="158">
@@ -12421,10 +12418,10 @@
         <v>22</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>391</v>
@@ -12474,8 +12471,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -12489,10 +12486,10 @@
         <v>22</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>391</v>
@@ -12519,10 +12516,10 @@
         <v>30</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>32</v>
@@ -12542,8 +12539,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -12557,10 +12554,10 @@
         <v>22</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>391</v>
@@ -12587,7 +12584,7 @@
         <v>30</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>32</v>
@@ -12610,8 +12607,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -12625,10 +12622,10 @@
         <v>22</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>391</v>
@@ -12655,7 +12652,7 @@
         <v>30</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>32</v>
@@ -12678,8 +12675,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -12693,10 +12690,10 @@
         <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>391</v>
@@ -12746,8 +12743,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -12764,7 +12761,7 @@
         <v>310</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>391</v>
@@ -12814,8 +12811,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -12829,10 +12826,10 @@
         <v>22</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>391</v>
@@ -12882,8 +12879,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -12897,10 +12894,10 @@
         <v>22</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>391</v>
@@ -12950,8 +12947,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="166">
@@ -12965,10 +12962,10 @@
         <v>22</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>391</v>
@@ -13018,8 +13015,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -13033,10 +13030,10 @@
         <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>391</v>
@@ -13086,8 +13083,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -13101,10 +13098,10 @@
         <v>22</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>391</v>
@@ -13154,8 +13151,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169">
@@ -13169,10 +13166,10 @@
         <v>22</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>391</v>
@@ -13222,8 +13219,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -13237,10 +13234,10 @@
         <v>22</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>391</v>
@@ -13305,22 +13302,22 @@
         <v>22</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>28</v>
@@ -13335,7 +13332,7 @@
         <v>30</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>32</v>
@@ -13350,7 +13347,7 @@
         <v>32</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="T171" s="2" t="s">
         <v>32</v>
@@ -13373,10 +13370,10 @@
         <v>22</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>413</v>
@@ -13426,8 +13423,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="173">
@@ -13441,10 +13438,10 @@
         <v>22</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>413</v>
@@ -13494,8 +13491,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="174">
@@ -13509,22 +13506,22 @@
         <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>28</v>
@@ -13539,7 +13536,7 @@
         <v>30</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>32</v>
@@ -13554,7 +13551,7 @@
         <v>32</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="T174" s="2" t="s">
         <v>32</v>
@@ -13577,22 +13574,22 @@
         <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>193</v>
+        <v>426</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>28</v>
@@ -13607,7 +13604,7 @@
         <v>30</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>32</v>
+        <v>427</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>32</v>
@@ -13622,7 +13619,7 @@
         <v>32</v>
       </c>
       <c r="S175" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="T175" s="2" t="s">
         <v>32</v>
@@ -13645,23 +13642,23 @@
         <v>22</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E176" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F176" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="G176" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="H176" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H176" s="1" t="s">
+      <c r="I176" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I176" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J176" s="2" t="s">
         <v>28</v>
       </c>
@@ -13675,7 +13672,7 @@
         <v>30</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>32</v>
@@ -13698,8 +13695,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -13713,23 +13710,23 @@
         <v>22</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F177" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="H177" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="I177" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J177" s="2" t="s">
         <v>28</v>
       </c>
@@ -13743,7 +13740,7 @@
         <v>30</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="O177" s="2" t="s">
         <v>32</v>
@@ -13766,8 +13763,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -13781,23 +13778,23 @@
         <v>22</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>430</v>
+        <v>71</v>
       </c>
       <c r="F178" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="I178" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I178" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J178" s="2" t="s">
         <v>28</v>
       </c>
@@ -13811,7 +13808,7 @@
         <v>30</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>431</v>
+        <v>167</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>32</v>
@@ -13834,8 +13831,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -13849,23 +13846,23 @@
         <v>22</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>433</v>
+        <v>74</v>
       </c>
       <c r="F179" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J179" s="2" t="s">
         <v>28</v>
       </c>
@@ -13879,7 +13876,7 @@
         <v>30</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="O179" s="2" t="s">
         <v>32</v>
@@ -13902,8 +13899,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -13917,23 +13914,23 @@
         <v>22</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F180" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="I180" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J180" s="2" t="s">
         <v>28</v>
       </c>
@@ -13947,7 +13944,7 @@
         <v>30</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>167</v>
+        <v>436</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>32</v>
@@ -13970,8 +13967,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -13985,23 +13982,23 @@
         <v>22</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F181" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="I181" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J181" s="2" t="s">
         <v>28</v>
       </c>
@@ -14015,13 +14012,13 @@
         <v>30</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>85</v>
+        <v>438</v>
       </c>
       <c r="O181" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>32</v>
+        <v>439</v>
       </c>
       <c r="Q181" s="2" t="s">
         <v>32</v>
@@ -14038,8 +14035,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -14053,23 +14050,23 @@
         <v>22</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="F182" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H182" s="1" t="s">
+      <c r="I182" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="I182" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="J182" s="2" t="s">
         <v>28</v>
       </c>
@@ -14083,7 +14080,7 @@
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>437</v>
+        <v>85</v>
       </c>
       <c r="O182" s="2" t="s">
         <v>32</v>
@@ -14106,144 +14103,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K183" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L183" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M183" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N183" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="O183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P183" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U183" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L184" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M184" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N184" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O184" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P184" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q184" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R184" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S184" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T184" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U184" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-IRN.xlsx
+++ b/Excel-XLSX/UN-IRN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>c4Glt5</t>
+    <t>nMwKn4</t>
   </si>
   <si>
     <t>1962</t>
@@ -1347,16 +1347,13 @@
     <t>2024</t>
   </si>
   <si>
-    <t>348</t>
+    <t>3477082</t>
+  </si>
+  <si>
+    <t>237452</t>
   </si>
   <si>
     <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1738,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:V184"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -14166,13 +14163,13 @@
         <v>31</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="O183" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P183" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q183" s="2" t="s">
         <v>33</v>
@@ -14204,7 +14201,7 @@
         <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>442</v>
@@ -14258,210 +14255,6 @@
         <v>34</v>
       </c>
       <c r="V184" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N185" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T185" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U185" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V185" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K186" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L186" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N186" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T186" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U186" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V186" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L187" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M187" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N187" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T187" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U187" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V187" s="2" t="s">
         <v>33</v>
       </c>
     </row>
